--- a/Documents/Will's User Story for Leaderboard.xlsx
+++ b/Documents/Will's User Story for Leaderboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E81E238C-384E-4001-9DC9-74CC1F93D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA68E64-72DB-4B8E-9E53-24723410F017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>ACTION</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>"Will" gets a point added to their all-time score bringing them to 3 points total and to the top of the leaderboard</t>
+  </si>
+  <si>
+    <t>** Bold outputs show discrepencies between what was predicted and what happened **</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -329,6 +332,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,6 +911,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
